--- a/temp_data/雷玮杰/番剧数据_雷玮杰.xlsx
+++ b/temp_data/雷玮杰/番剧数据_雷玮杰.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62198EA5-B086-4EF1-B227-D334F7C0A739}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>番剧名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,12 +159,126 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>killMyTIme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星合之空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客伍六七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《刺客伍六七》的剧情相当引人入胜，细思极恐，全是细节，相当多的暗示表明一切的背后有着更大的故事，有着无厘头的搞笑又不乏深刻的道理，制作组在两者之间找到了一个均衡点，剧情几乎完美的安排使得动漫中每个人的形象都生动鲜明。</t>
+  </si>
+  <si>
+    <t>在某个小岛上，有一个可以伪装成任何东西的廉价刺客，名叫伍六七。平时看上去是个理发师，其实背地里却做着刺客生意。热爱理发事业，喜欢给人剪头发，善用剪刀——剪刀也是他的刺杀武器。由于初入刺客行当，行情十分廉价，因此接到的都是些奇葩的刺杀任务。在执行刺杀任务的过程中，与刺杀对象发生一系列有趣的意外事件。</t>
+  </si>
+  <si>
+    <t>搞笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以即将废部的男子中学软式网球部为舞台，讲述了抱着各自想法的少年们讴歌青春的故事。</t>
+  </si>
+  <si>
+    <t>如果瞬间要说出十个只要听到就会心潮澎湃的词汇，你会选择哪些？
+我的话一定是：少年，青春，相遇，友情，宇宙，恒星，春风，信任，勇气，以及奇迹。
+而这些词汇集起来又会带来全世界最美妙的单词：“惊喜”。
+—《星合之空》，正是我在这个好作品频出的梦幻十月相遇到的最大的惊喜。
+事实上，我对星合最初的印象来自新番列表上的惊鸿一瞥。只需要一眼，漂亮意味不明的名字和清新的画风就一起抓住了我的眼睛，点开pv，又被动人的配乐给抓住了耳朵。等到月中番剧好不容易更新，他便用流畅的作画，别致的人设，有趣的展开，勇敢的视角，真实的触感准确俘获了我的红心。
+然而第一话的舆论中，很多观众都对这份真实的触感颇有微词。
+星合清新的画风与营造得颇具透明感的气氛将故事装点得像个童话，似乎只有男孩们聚在一起进行一些软乎乎，令人愉悦的社团与友情活动。一切看起来都该是无限美好和睦。童话世界远离所有尖锐同矛盾。可是作为监督的赤根老师不想只是描绘美好的梦境。
+他在访谈里说星合要描绘的就是格格不入的主角，现实中常出现的所谓“人生的输家”，因为年纪尚幼无法逃离，长大后就会遗忘的种种伤痛。这些伤痛确实存在于我们的生活中，或许与一些人面碰面撞出过满头血，或许活在阴影里成为一趟又一趟，“幸存者”们的谈资。
+伤痛无一例外。都令人恐惧。
+遭遇过的人则会产生包含恐惧在内的更加复杂的心绪。没有经历过同样的处境，根本无法去谈互相理解，感同身受。
+这可能是许多人看过第一话后对作品排斥的原因。童话一般的梦幻表皮下，赤根监督决定描写所有他所见的真实。囊括真实世界的黑白两面：活泼的少年少女，消极的少年少女，打磨青春的勇者，虚度青春的游徒。这个世界就是允许这样的不同同时存在。这个世界就是存在不爱子女的父母、通过欺凌获取价值的蠢货，等等等等，还有更多。
+看见他们在社会新闻中出现我们可能会愤然一句天呐，一边感叹世界的不合理，一边寻找抨击这些错误出现的源头。
+看见他们在轻飘飘的动画中出现又会怎么样呢？
+许多人对此表示了不适。
+但就我而言，动画同样是承载价值观的重要创作产物。不单可以用于消遣打发时间，释放幻想。他可以一边漂亮可爱，一边用甜美的语言把阴影和伤痛摊开在我面前。这是动画天然具有的资格。
+而为什么我偏偏选择接受甚至是热爱星合之空表现真实的方式。则是因为：
+他想做的不只是勇敢地展现伤口，还有温柔的治愈。把美好的东西打破给人看可以造就最难过的悲剧，直视伤痛治愈伤痛则会成就最圆满的Happyending。
+我期待星合之空到达类似的Happyending。赤根监督在作品和访谈中体现出的对少年人的祝福无一不使我深深动容。以及深深信任星合之空真的能成为一部，制作用心，故事动人，主题积极，略显不合时宜，但确实能留下什么的好作品。
+这三集中体现的人物塑造，故事节奏，表现力度也足够支撑起我的信任。
+小少年们于伤痛之上追逐微风，迎着蔚蓝的天空跨过条条框框，“保持着自己的尊严和个性生活下去”。不再害怕，不要遗忘，不再孤独，不必赢得胜利，只要坦荡又努力地生活下去。这就是我在见过真实之后，所想象出的梦境。
+为了等到梦境实现，这次我绝不移开视线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉食兽和草食兽共存的世界。在食肉被视为重罪的情况下 ，全寄宿制的名门高中·却里顿学园发生了学生被吞噬的“食杀事件”。在充斥着不安的校园里，戏剧部的怪人·灰狼雷格西过着与其“庞大身躯”和“锐利尖牙”相反的安静生活。但是和小巧的兔子的女学生·春的相遇，打动了雷格西的心。“我追求她的心情，是恋爱？还是食欲？”他真正遇到的东西，是他自己的本能——</t>
+  </si>
+  <si>
+    <t>这是一场动物版的青春人性剧。\n在《BEASTARS》的架空世界中，肉食动物与草食动物皆具备高度智能，和谐共处。受制于社会道德的约束以及公共规则的需要，食肉等同于杀人一般的重罪，而男主灰狼雷格西所处的全寄宿制的名门高中却里顿学园发生了学生被吞噬的“食杀事件”；不安的情绪与被抑制的兽性在空气中弥漫开来，我们的故事也由此缓缓拉开了帷幕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪诞小镇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12岁的迪普和双胞胎姐姐梅宝被从加州的家中送到了一个虚构的俄勒冈小镇——重力泉镇，与住在那里，经营着满是欺骗游客陷阱的“神秘小屋”的斯坦叔公一同度过暑假。
+这个小镇并不像看上去的那样祥和平静，孩子们一边帮助斯坦经营满是欺骗游客陷阱的“神秘小屋（The Mystery Shack）”，一边调查当地神秘事件。在迪普从森林里发现的日志的帮助下，姐弟俩开始慢慢的解开这个小镇的种种谜团。随着迪普和梅宝的好朋友：收银员温蒂、勤杂工苏斯，以及各种角色的出现，让迪普和梅宝总能对新的一天充满期待。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暑假到了，双胞胎姐弟俩梅宝（克里斯汀·沙尔 Kristen Schaal 配音）和迪普（杰森·雷特 Jason Ritter 配音）被爸妈赶到一个偏僻小镇“重力泉”过暑假，在这里，他们的斯坦叔公经营着一家专门敲诈游客的旅游景点“神秘小屋”，其中有着各种各样稀奇古怪的东西。然而更让人感到毛骨悚然的，则是这个怪诞小镇里的森林。为人慎重、头脑聪明的迪普觉察到森林的异样，继而发现了一本埋在地下的神秘笔记本，里面记载着存在于神秘小镇的不为人知的秘密。乐天派的梅宝和机智的迪普，结识了神秘小屋的店员温蒂和苏斯，还遇到各种奇妙的小镇居民。在怪诞小镇重力泉，他们经历了一系列奇异事件，小矮人，湖怪，蜡像，通灵者，他们这个暑假注定不平凡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md28222618</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md28222738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md6360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/bangumi/media/md23432</t>
+  </si>
+  <si>
+    <t>灵笼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不久的未来，人类的世界早已拥挤不堪，迈向星河、寻找新家园的行动迫在眉捷。正当一切有条不紊的推进之时，月相异动，脚下的大地爆发了长达数十年、剧烈的地质变化，人类在这场浩劫中所剩无几。当天地逐渐恢复平静，人们从废墟和深渊中重新踏上了这片熟悉而又陌生的大地。习惯了主宰一切的我们是否还是这个世界的主人？</t>
+  </si>
+  <si>
+    <t>优点画面画质非常好，配乐也超赞，比同类作品高出一大截。\n缺点是里面英雄豪杰重要人物基本上都是欧美面孔，为数不多的亚洲人种都是女性，配给了诸位欧美英雄豪杰高官显贵。主角霍夫曼有冉冰，城主摩根和镜南配戏，教会金发也有个前凸后翘的樊缔。希望人类共同体里人种能再平衡一些。当然，也许剧情峰回路转，这样人种安排是有剧情需要，比如基因筛选之类的策略再做妖，算我没说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> BEASTARS </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +310,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -219,10 +350,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -236,9 +368,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,22 +654,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.5546875" customWidth="1"/>
-    <col min="4" max="4" width="47.33203125" customWidth="1"/>
-    <col min="6" max="6" width="50.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="56.25" customWidth="1"/>
+    <col min="4" max="4" width="47.375" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -544,7 +684,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -556,7 +696,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -568,7 +708,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -580,7 +720,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -592,7 +732,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,72 +764,164 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1233</v>
+      </c>
+      <c r="H7" s="1">
+        <v>132</v>
+      </c>
+      <c r="I7" s="1">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1">
+        <v>11111</v>
+      </c>
+      <c r="H8" s="1">
+        <v>356</v>
+      </c>
+      <c r="I8" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2344</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I9" s="1">
+        <v>21</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="G10" s="1">
+        <v>21223</v>
+      </c>
+      <c r="H10" s="1">
+        <v>235</v>
+      </c>
+      <c r="I10" s="1">
+        <v>123</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="1">
+        <v>12123</v>
+      </c>
+      <c r="H11" s="1">
+        <v>535</v>
+      </c>
+      <c r="I11" s="1">
+        <v>123</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{DF3FD706-726A-413F-9AB4-DBDF6D14307F}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{9811C222-60FE-4374-83A7-6FD4D8524710}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>